--- a/Inputs/Methodology Summary_Andes 12.16.xlsx
+++ b/Inputs/Methodology Summary_Andes 12.16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/INL WH LAC Reports/4. Report Production/Report Text/Methodology/Sample Description Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49329EA1-EA3B-EC41-9578-47D33EF37E0E}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B74A02E-940F-4E7E-892C-52A585948382}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Frame" sheetId="5" r:id="rId1"/>
@@ -388,14 +388,37 @@
     <t>Sample Sub-Units 1</t>
   </si>
   <si>
-    <t>*Polling company listed 17 regions in Peru, but two (Loreto and San Martino) were substituted due to security, inaccessibility</t>
+    <r>
+      <t>*Polling company listed 17 regions in Peru, but two (Loreto and San Martino) were substituted due to security, inaccessibility (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential manual change: add all where applicable?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,7 +562,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -563,7 +586,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -851,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,15 +888,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="20.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.81640625" style="13"/>
+    <col min="2" max="2" width="20.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -893,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1000</v>
       </c>
@@ -913,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
@@ -933,7 +956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>1005</v>
       </c>
@@ -953,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1029</v>
       </c>
@@ -996,21 +1019,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="21.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="13"/>
-    <col min="5" max="5" width="18.83203125" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.81640625" style="13"/>
+    <col min="2" max="2" width="21.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="13"/>
+    <col min="5" max="5" width="18.81640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1118,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1133,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1148,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1163,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1196,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1248,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1263,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1278,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1270,13 +1293,14 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E24" s="13" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1284,18 +1308,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55:D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="13"/>
-    <col min="3" max="3" width="38.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="2" width="10.81640625" style="13"/>
+    <col min="3" max="3" width="38.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
@@ -1309,7 +1333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1348,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1366,7 @@
       <c r="F3" s="21"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1357,7 +1381,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1396,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1387,7 +1411,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1426,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1475,7 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +1489,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1517,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1545,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1559,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
@@ -1549,7 +1573,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1588,7 @@
       </c>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1602,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1617,7 @@
       </c>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>9</v>
       </c>
@@ -1607,7 +1631,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1646,7 @@
       </c>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1660,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1675,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1705,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
@@ -1695,7 +1719,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -1709,7 +1733,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1747,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
@@ -1737,7 +1761,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>13</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>13</v>
       </c>
@@ -1779,7 +1803,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1817,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>13</v>
       </c>
@@ -1807,7 +1831,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1845,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1859,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>0.21200000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1888,7 @@
       </c>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1902,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1930,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>17</v>
       </c>
@@ -1920,7 +1944,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1958,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +1986,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +2000,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +2014,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>17</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>17</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2085,7 @@
       </c>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2099,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -2089,7 +2113,7 @@
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -2103,7 +2127,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>21</v>
       </c>
@@ -2117,7 +2141,7 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>21</v>
       </c>
@@ -2131,7 +2155,7 @@
         <v>0.24390000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2169,7 @@
         <v>0.38669999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>21</v>
       </c>
@@ -2159,7 +2183,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2197,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>21</v>
       </c>
@@ -2187,7 +2211,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +2226,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>21</v>
       </c>
@@ -2216,7 +2240,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>21</v>
       </c>
@@ -2230,7 +2254,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2268,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>21</v>
       </c>
@@ -2259,7 +2283,7 @@
       </c>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
@@ -2273,7 +2297,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>21</v>
       </c>
@@ -2287,7 +2311,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>21</v>
       </c>
@@ -2301,7 +2325,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>21</v>
       </c>
@@ -2315,7 +2339,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>21</v>
       </c>
@@ -2343,24 +2367,24 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2392,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2376,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2408,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2392,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2422,7 +2446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2430,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2446,57 +2470,57 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2528,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2512,12 +2536,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2525,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +2557,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2541,7 +2565,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -2549,7 +2573,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -2557,7 +2581,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2565,7 +2589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2592,24 +2616,24 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2636,7 +2660,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2644,7 +2668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2652,7 +2676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2674,7 +2698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2682,7 +2706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2690,7 +2714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2698,17 +2722,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2735,12 +2759,12 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2748,7 +2772,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2756,17 +2780,17 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2774,7 +2798,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2782,13 +2806,13 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2796,7 +2820,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -2811,7 +2835,7 @@
         <v>0.21200000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2826,7 +2850,7 @@
         <v>0.78399999999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -2834,7 +2858,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -2842,7 +2866,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2850,7 +2874,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2876,24 +2900,24 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2925,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2909,7 +2933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2917,7 +2941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2925,7 +2949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2941,7 +2965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2955,7 +2979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2966,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2977,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2985,7 +3009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2993,17 +3017,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -3012,7 +3036,7 @@
         <v>0.54029850746268659</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -3021,12 +3045,12 @@
         <v>0.45970149253731341</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3035,7 +3059,7 @@
         <v>0.63980099502487564</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3044,17 +3068,17 @@
         <v>0.36019900497512436</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3063,7 +3087,7 @@
         <v>0.49353233830845772</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3072,12 +3096,12 @@
         <v>0.50646766169154234</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -3085,7 +3109,7 @@
         <v>3.003003003003003E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>0.14114114114114115</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -3108,7 +3132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -3123,7 +3147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -3131,7 +3155,7 @@
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3139,7 +3163,7 @@
         <v>5.0050050050050053E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3147,7 +3171,7 @@
         <v>3.003003003003003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -3165,24 +3189,24 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3214,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3198,7 +3222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3206,7 +3230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3214,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -3244,7 +3268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3255,7 +3279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3274,7 +3298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3282,17 +3306,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -3302,7 +3326,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -3311,7 +3335,7 @@
         <v>0.17006802721088435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -3320,7 +3344,7 @@
         <v>0.11467444120505345</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -3329,7 +3353,7 @@
         <v>0.24392614188532555</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -3338,12 +3362,12 @@
         <v>0.38678328474246843</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -3351,7 +3375,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -3359,17 +3383,17 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3378,7 +3402,7 @@
         <v>0.48590864917395532</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3387,12 +3411,12 @@
         <v>0.51409135082604474</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>8.0312195121951205E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3430,7 +3454,7 @@
         <v>9.7378536585365855E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -3456,7 +3480,7 @@
         <v>0.49893951219512195</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -3482,7 +3506,7 @@
         <v>0.15560487804878048</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3501,7 +3525,7 @@
         <v>0.12649170731707315</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3520,7 +3544,7 @@
         <v>5.220292682926829E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3539,7 +3563,7 @@
         <v>6.2241951219512197E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E47">
         <v>0.4</v>
       </c>
@@ -3552,7 +3576,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3564,6 +3588,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e06ed64c304ede68fbf146ec0a2cc6f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f6e290bc3f24965bc54ef07ecce9ef" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -3806,27 +3850,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2EE7562-E997-4216-A724-18548DB05370}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3843,29 +3892,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inputs/Methodology Summary_Andes 12.16.xlsx
+++ b/Inputs/Methodology Summary_Andes 12.16.xlsx
@@ -3608,8 +3608,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e06ed64c304ede68fbf146ec0a2cc6f3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f6e290bc3f24965bc54ef07ecce9ef" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
     <xsd:element name="properties">
@@ -3643,7 +3643,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -3662,7 +3662,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -3694,7 +3694,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -3760,8 +3760,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3876,20 +3876,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2EE7562-E997-4216-A724-18548DB05370}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC5BE481-FDE8-4633-AC9A-F5EDCFDDF5DB}"/>
 </file>